--- a/store/iago_fellipe.xlsx
+++ b/store/iago_fellipe.xlsx
@@ -621,14 +621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
     <col min="3" max="3" width="34.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.109375" bestFit="1" customWidth="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F3">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
       <c r="N3" s="5"/>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="F4">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
       </c>
       <c r="F5">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
       </c>
       <c r="F6">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
       </c>
       <c r="F7">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -743,8 +743,8 @@
         <f>(A2*B2*C2)+A5</f>
         <v>5500</v>
       </c>
-      <c r="B8" s="17">
-        <v>0.05</v>
+      <c r="B8" s="16">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C8" s="18">
         <v>5</v>
@@ -764,7 +764,7 @@
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>PMT(B8,C8,-A8,,0)+((B5*B2*A2))</f>
-        <v>11270.361389705475</v>
+        <v>11432.400295389009</v>
       </c>
       <c r="B11" s="17">
         <v>0.15</v>
@@ -788,15 +788,15 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>A11/(1-C11)</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
       <c r="B14" s="12">
         <f>NPV(B8,F3:F7)</f>
-        <v>70208.297419148468</v>
+        <v>63161.277503693855</v>
       </c>
       <c r="C14" s="12">
         <f>B30</f>
-        <v>54138.998382414808</v>
+        <v>46577.588565503924</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -815,21 +815,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <f>C31</f>
         <v>1.4215694454099408</v>
       </c>
       <c r="B17" s="13">
         <f>B31</f>
-        <v>1.3205797238228931</v>
+        <v>1.3010130246064113</v>
       </c>
       <c r="C17" s="12">
         <f>PMT(B8,2,-C30)</f>
-        <v>31697.109498761416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>29605.831501044257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -844,7 +844,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f>PMT(B8,C8,-B30)</f>
-        <v>12504.744222244895</v>
+        <v>12130.500294497368</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -866,11 +866,11 @@
       </c>
       <c r="B24" s="12">
         <f>-A11</f>
-        <v>-11270.361389705475</v>
+        <v>-11432.400295389009</v>
       </c>
       <c r="C24" s="12">
         <f>-A11</f>
-        <v>-11270.361389705475</v>
+        <v>-11432.400295389009</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
       </c>
       <c r="C25" s="12">
         <f>A$14</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
       </c>
       <c r="C26" s="12">
         <f>A$14</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C27" s="12">
         <f>A$14</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
       </c>
       <c r="C28" s="12">
         <f>A$14</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
       </c>
       <c r="C29" s="12">
         <f>A$14</f>
-        <v>16216.347323317228</v>
+        <v>16449.496827897852</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -945,11 +945,11 @@
       </c>
       <c r="B30" s="12">
         <f>NPV(B8,B25:B29)+B24</f>
-        <v>54138.998382414808</v>
+        <v>46577.588565503924</v>
       </c>
       <c r="C30" s="12">
         <f>NPV(B8,C25,C26,C27,C28,C29)+C24</f>
-        <v>58937.936029442993</v>
+        <v>51728.877208304846</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
       </c>
       <c r="B31" s="13">
         <f>IRR(B24:B29)</f>
-        <v>1.3205797238228931</v>
+        <v>1.3010130246064113</v>
       </c>
       <c r="C31" s="13">
         <f>IRR(C24:C29,)</f>
@@ -967,6 +967,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>